--- a/medicine/Médecine vétérinaire/Parasitose_à_Camallanus_cotti/Parasitose_à_Camallanus_cotti.xlsx
+++ b/medicine/Médecine vétérinaire/Parasitose_à_Camallanus_cotti/Parasitose_à_Camallanus_cotti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parasitose_%C3%A0_Camallanus_cotti</t>
+          <t>Parasitose_à_Camallanus_cotti</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Camallanus cotti est un nématode parasite qui provoque une maladie très simple à repérer chez les guppy et autres poissons qui le plus souvent ont un appendice marron ou brun (le ver) dépassant de l'orifice anal. Les femelles de toutes espèces atteintes peuvent devenir stériles. 1 à 6 mois après l'infection, si elle n'a pas été correctement traitée, les individus décèdent. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parasitose_%C3%A0_Camallanus_cotti</t>
+          <t>Parasitose_à_Camallanus_cotti</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Photo et liens vers d'autres articles concernant ce parasite (en Anglais)
  Portail de l’aquariophilie   Portail de la parasitologie   Portail de la médecine vétérinaire                   </t>
